--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -100,6 +100,13 @@
   <si>
     <t xml:space="preserve">その日に習ったことを振り返り復習する。
 キーボードのショートカットを覚えて操作時間を短縮する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「＃」が抜けていたことがあった。「タグ」の使い方が深く理解できていなかったので、ブラウザで表示するときに上手に表示されなかった。資料を見ないと操作ができなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースが書けたとしても最後まで注意を怠らないこと。
+予習、復習をしっかりする</t>
   </si>
 </sst>
 </file>
@@ -597,10 +604,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -804,7 +811,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="n">
         <v>1</v>
@@ -840,7 +847,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="17" t="n">
         <v>2</v>
@@ -876,15 +883,23 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>45398</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -102,11 +102,20 @@
 キーボードのショートカットを覚えて操作時間を短縮する。</t>
   </si>
   <si>
-    <t xml:space="preserve">「＃」が抜けていたことがあった。「タグ」の使い方が深く理解できていなかったので、ブラウザで表示するときに上手に表示されなかった。資料を見ないと操作ができなかった</t>
+    <t xml:space="preserve">「＃」が抜けていたことがあった。「タグ」の使い方が深く理解できていなかったので、ブラウザで表示するときに上手に表示されなかった。
+資料を見ないと操作ができなかった</t>
   </si>
   <si>
     <t xml:space="preserve">ソースが書けたとしても最後まで注意を怠らないこと。
 予習、復習をしっかりする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「classセレクタ」と「タイプセレクタ」の区別ができておらず、CSSのコードの書き方が間違っていた。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隙間時間に復習をしておく
+</t>
   </si>
 </sst>
 </file>
@@ -604,10 +613,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -862,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="20"/>
@@ -898,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="22" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="20"/>
@@ -919,15 +928,23 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="49" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>45400</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -116,6 +116,12 @@
   <si>
     <t xml:space="preserve">隙間時間に復習をしておく
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">コードに間違いはなかったが、パソコン等のどこかのエラーで正常に動作ができなかった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何かうまくいかなかったときに自分のミスもあると思うがハードとかの問題も念頭においてシャットダウンも取り入れるようにしていきたい</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,15 +970,23 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>45401</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t xml:space="preserve">何かうまくいかなかったときに自分のミスもあると思うがハードとかの問題も念頭においてシャットダウンも取り入れるようにしていきたい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初めて聞く単語が多く頭の中で、『この単語は何をする処理か』を頭の中で上手に整理することができなかった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次する講義のテキストを予習する。
+予習の段階で分からない単語があれば調べる。
+分からない単語と単語とその単語がどのような動作をするか等、セットで覚えるようにする。</t>
   </si>
 </sst>
 </file>
@@ -619,10 +627,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,15 +1014,23 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17" t="n">
+        <v>6</v>
+      </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="F11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>45404</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -130,6 +130,14 @@
     <t xml:space="preserve">次する講義のテキストを予習する。
 予習の段階で分からない単語があれば調べる。
 分からない単語と単語とその単語がどのような動作をするか等、セットで覚えるようにする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if文やfor文を使用するのはわかるが、その後の条件文のコードが上手に書けない
+（やりたいことは頭であるがコードにかけない）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">とにかくネットにあるソースコードを読みまくる
+実際に、自分自身でソースコードをたくさん書く</t>
   </si>
 </sst>
 </file>
@@ -627,9 +635,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1050,15 +1058,23 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="n">
+        <v>7</v>
+      </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="F12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>45405</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -138,6 +138,14 @@
   <si>
     <t xml:space="preserve">とにかくネットにあるソースコードを読みまくる
 実際に、自分自身でソースコードをたくさん書く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースコードを書いていくときに自分で変数を決めたのに後から見たときに変数がたくさんあって、頭が複雑になってしまった。
+ソースを書いていくうちに変数がいろいろ増えてしまって頭が混乱してしまった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もっと英語力をつけて、変数名を見ただけで何を書いているかをわかるようにする
+変数の役割を理解する</t>
   </si>
 </sst>
 </file>
@@ -635,10 +643,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,15 +1102,23 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="17" t="n">
+        <v>8</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>45406</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -146,6 +146,13 @@
   <si>
     <t xml:space="preserve">もっと英語力をつけて、変数名を見ただけで何を書いているかをわかるようにする
 変数の役割を理解する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">『boolean型』のところで無駄なソースコードが多くあると感じたので、省けることろは、見直してもう少し省けるようにしたい。
+意味のある変数名や変数名を書く時のルールなどで苦戦した。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう少し「型」を意識して、その「型」がどういう役割を持っているのかを重要視する</t>
   </si>
 </sst>
 </file>
@@ -643,10 +650,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1138,15 +1145,23 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="38.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="n">
+        <v>9</v>
+      </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>45407</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -153,6 +153,13 @@
   </si>
   <si>
     <t xml:space="preserve">もう少し「型」を意識して、その「型」がどういう役割を持っているのかを重要視する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参照型を引数に持つメソッドの部分で、どのメソッドを呼び出しているのかがかなり複雑で苦戦した</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ある程度理解したと思い、テキストの練習問題をしたが、まだテキストを見るだけではソースコードを書けなかったのでもっと実際にコードを書いて練習していきたい
+</t>
   </si>
 </sst>
 </file>
@@ -650,10 +657,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,15 +1188,23 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>45408</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -160,6 +160,14 @@
   <si>
     <t xml:space="preserve">ある程度理解したと思い、テキストの練習問題をしたが、まだテキストを見るだけではソースコードを書けなかったのでもっと実際にコードを書いて練習していきたい
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">在宅ということもあり、パソコンの操作に慣れておらず、講義についていくのに必死だった。
+分からない単語が多く出てき、質問しようにも質問できなかった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普段の生活からもっとパソコンに触れるようにする
+次回までに分からない単語をまとめて、その単語がどういう意味でどういう働きをするのか動作確認してみる</t>
   </si>
 </sst>
 </file>
@@ -658,9 +666,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1224,14 +1232,20 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="18"/>
       <c r="J16" s="20"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -168,6 +168,13 @@
   <si>
     <t xml:space="preserve">普段の生活からもっとパソコンに触れるようにする
 次回までに分からない単語をまとめて、その単語がどういう意味でどういう働きをするのか動作確認してみる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">細かいところの理解ができていなかった。例えば、コンストラクタが定義されていなかったら初期値に「null」が入ってということ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習問題をするときに、このソースコードがなければどう動くのかというのも確認していきより理解を深めていく</t>
   </si>
 </sst>
 </file>
@@ -665,10 +672,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,7 +1239,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="12" t="n">
         <v>11</v>
@@ -1246,7 +1253,9 @@
       <c r="G16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="21" t="n">
+        <v>45419</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
@@ -1266,15 +1275,23 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="F17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>45420</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -175,6 +175,13 @@
   </si>
   <si>
     <t xml:space="preserve">練習問題をするときに、このソースコードがなければどう動くのかというのも確認していきより理解を深めていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースコードを書いた際、そのソースコードの中でどう動いているかがいまいちまだわかっていなかった
+分からないところが分からず質問しようにもできなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時間外サポートや質問の時間を効率的に使っていく</t>
   </si>
 </sst>
 </file>
@@ -672,10 +679,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1311,15 +1318,23 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12" t="n">
+        <v>13</v>
+      </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="F18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>45421</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -182,6 +182,13 @@
   </si>
   <si>
     <t xml:space="preserve">時間外サポートや質問の時間を効率的に使っていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・javaの開発演習をするときに問題を一度読むだけでは、何を作るべきかのイメージが難しいところ
+・java開発演習で、今まで習ったことをほとんど使うことができなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・習ったろころはテキストで復習をしつつ、それでも理解できなければ周りの人や講師の人に聞きに行く</t>
   </si>
 </sst>
 </file>
@@ -679,9 +686,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1354,15 +1361,23 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="17" t="n">
+        <v>14</v>
+      </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="F19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>45422</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -189,6 +189,14 @@
   </si>
   <si>
     <t xml:space="preserve">・習ったろころはテキストで復習をしつつ、それでも理解できなければ周りの人や講師の人に聞きに行く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・課題をgitで提出するときに、今までと同じ方法で操作していたつもりが、正しい方法でできていなくて提出の際にかなり手間がかかってしまった
+・Java開発演習の問題を最後まで解けなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・操作方法に少しでも不安があるところは、もう一度資料を確認して間違えないようにする
+・Java開発演習の問題が最後まで解けなかったのは、今まで習った単元が理解できていなかったからだと思うので最初からテキストをみて復習をする</t>
   </si>
 </sst>
 </file>
@@ -686,10 +694,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1397,15 +1405,23 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="56.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="n">
+        <v>15</v>
+      </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="F20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>45425</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -197,6 +197,12 @@
   <si>
     <t xml:space="preserve">・操作方法に少しでも不安があるところは、もう一度資料を確認して間違えないようにする
 ・Java開発演習の問題が最後まで解けなかったのは、今まで習った単元が理解できていなかったからだと思うので最初からテキストをみて復習をする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobolは、そのままの英単語の意味を使ってコードを書くことが多いのにも関わらず、ほぼ毎回、分からない英単語の意味を調べていた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隙間時間を見つけてプログラミングの開発言語勉強もしつつ英語の勉強も取り組んでいく</t>
   </si>
 </sst>
 </file>
@@ -694,10 +700,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1441,15 +1447,23 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="39.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="17" t="n">
+        <v>16</v>
+      </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="F21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>45426</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t xml:space="preserve">隙間時間を見つけてプログラミングの開発言語勉強もしつつ英語の勉強も取り組んでいく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二日間、講義に出席できず、分からない部分が多くあったので体調管理をしっかりすること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手洗いうがいや栄養をしっかりとる等、もっと自己管理をおこない、これからは体調を崩さないようにしていきたい</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1483,15 +1489,23 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="n">
+        <v>17</v>
+      </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>45429</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t xml:space="preserve">手洗いうがいや栄養をしっかりとる等、もっと自己管理をおこない、これからは体調を崩さないようにしていきたい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休んでいたことろの講義までまだ理解が追い付けていないこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講義終わりの時間外サポートや講義外での自習時間を作ってできるだけはやくおいつけるようにしたい</t>
   </si>
 </sst>
 </file>
@@ -707,9 +713,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,14 +1531,20 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="17" t="n">
+        <v>18</v>
+      </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="18"/>
       <c r="J23" s="20"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">講義終わりの時間外サポートや講義外での自習時間を作ってできるだけはやくおいつけるようにしたい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全体的にふわふわしていてあまり理解することができていないと感じる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明日までに、本日の講義で行ったところをもう一度テキストを見返して復習をする</t>
   </si>
 </sst>
 </file>
@@ -712,10 +718,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1545,7 +1551,9 @@
       <c r="G23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="21" t="n">
+        <v>45432</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
@@ -1565,15 +1573,23 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="12" t="n">
+        <v>19</v>
+      </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="F24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>45433</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t xml:space="preserve">明日までに、本日の講義で行ったところをもう一度テキストを見返して復習をする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Javaの記述式試験で分からないところがあった（例外処理の部分）
+・講義の中のスコープの種類や違いがいまいち理解できなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・忘れないためにも、テキストを見返して復習をしておく
+・テキストを見ても分からない部分は講師の人に聞きにいく</t>
   </si>
 </sst>
 </file>
@@ -721,7 +729,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,14 +1617,20 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="33.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="17" t="n">
+        <v>20</v>
+      </c>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="18"/>
       <c r="J25" s="20"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -229,6 +229,12 @@
   <si>
     <t xml:space="preserve">・忘れないためにも、テキストを見返して復習をしておく
 ・テキストを見ても分からない部分は講師の人に聞きにいく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講義中の動作確認のときに、「このソースコードがあるからこのように動く」という理解があまりイメージできなかった点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もっとソースコードに触れていっていろいろ試していきどのように動いているかを理解していく</t>
   </si>
 </sst>
 </file>
@@ -726,10 +732,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1651,14 +1657,20 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="n">
+        <v>21</v>
+      </c>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="20"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t xml:space="preserve">もっとソースコードに触れていっていろいろ試していきどのように動いているかを理解していく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Javaの下巻のテキストの知識がまだ固まっていないと思うので、講義中の内容も理解ができない部分があると感じる
+・Servletの単元でも初めの方からあまり理解できていないため練習問題が最初の方から詰まってしまい、なかなか進まなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・週末に入るので今までのところを復習して理解度を深めておく
+・とにかく練習問題を解いて理解度を深める</t>
   </si>
 </sst>
 </file>
@@ -732,10 +740,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1637,7 +1645,9 @@
       <c r="G25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="21" t="n">
+        <v>45434</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
@@ -1691,19 +1701,25 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="B27" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1721,17 +1737,19 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="B28" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1749,17 +1767,19 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="B29" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1777,17 +1797,19 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="B30" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1809,13 +1831,13 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -28965,7 +28987,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C26 H26 K26" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C30 H26:H31 K26:K31" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -243,6 +243,14 @@
   <si>
     <t xml:space="preserve">・週末に入るので今までのところを復習して理解度を深めておく
 ・とにかく練習問題を解いて理解度を深める</t>
+  </si>
+  <si>
+    <t xml:space="preserve">総合試験の出来が良くなくて、まだまだJavaとServletの部分が理解できていないと感じた
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・配布されている練習問題やJavaのテキストにある練習問題をたくさん解いてより理解を深める
+・それでも理解できない場合はネットで調べたり講師の人に質問する</t>
   </si>
 </sst>
 </file>
@@ -740,10 +748,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1735,7 +1743,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="12" t="n">
         <v>23</v>
@@ -1743,8 +1751,12 @@
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理表" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="個人開発演習課題管理表" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -252,6 +253,156 @@
     <t xml:space="preserve">・配布されている練習問題やJavaのテキストにある練習問題をたくさん解いてより理解を深める
 ・それでも理解できない場合はネットで調べたり講師の人に質問する</t>
   </si>
+  <si>
+    <t xml:space="preserve">・もっと実際にソースコードを書いてどのように動いているのかを勉強しないといけないと感じた
+・一行一行のソースコードの理解を深めなければならない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキストを読むのはもちろんだが、とにかくもっと実際にソースコードに触れていき、一行一行のソースコードの理解を深めていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">書籍の項目を一覧表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">書籍一覧画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面をリダイレクトできていなかったため、書籍の項目が表示されなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースコードの部分でリダイレクトのところがあまり理解できていなかったのでテキストを見て復習する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リダイレクトするソースコードの書き方を教えてもらうとできた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン画面、書籍一覧画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースコードはあっていたが、ブラウザで表示したときにCSSが反映されていなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講師の人に聞く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンソール停止してもう一度実行や、ブラウザで再読み込みをすると直った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・発行日のところをint型にしておりうまく情報がとれていなかった
+・発行日の後ろに「0」が何個も出てきていらない表示が出てきていた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java下巻のクラスライブラリの文字列を扱うクラスでStringクラスのメソッドのところを見ればいけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どういったサーブレットが必要なのか分からなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データベースから情報を取り出してくるときに昇順に表示させるやり方が思いつかなかった</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD9E8F7"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF03A8D8"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"/07_ReonOota_servlet_exam/login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA7EC21"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF52CA11"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"post"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="‚l‚r ƒSƒVƒbƒN"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+といったどのようにソースコード書けばどの処理をおこなってくれるかが分からなかった</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +413,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="[$-411]yyyy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -318,6 +469,49 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD9E8F7"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF03A8D8"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA7EC21"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF52CA11"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0080FF"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="‚l‚r ƒSƒVƒbƒN"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -335,7 +529,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.7999"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFD9E8F7"/>
       </patternFill>
     </fill>
     <fill>
@@ -400,7 +594,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,6 +691,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +728,7 @@
       <rgbColor rgb="FFDBEEF4"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0080FF"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -540,8 +738,8 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF03A8D8"/>
+      <rgbColor rgb="FFD9E8F7"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -550,14 +748,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFA7EC21"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF52CA11"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -748,10 +946,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1689,7 +1887,9 @@
       <c r="G26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="21" t="n">
+        <v>45435</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="20"/>
       <c r="K26" s="18"/>
@@ -1723,7 +1923,9 @@
       <c r="G27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="21" t="n">
+        <v>45436</v>
+      </c>
       <c r="I27" s="18"/>
       <c r="J27" s="20"/>
       <c r="K27" s="18"/>
@@ -1757,7 +1959,9 @@
       <c r="G28" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="21" t="n">
+        <v>45439</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
       <c r="K28" s="18"/>
@@ -1777,7 +1981,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="12" t="n">
         <v>24</v>
@@ -1785,9 +1989,15 @@
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="18"/>
+      <c r="F29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>45440</v>
+      </c>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
       <c r="K29" s="18"/>
@@ -28999,7 +29209,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C30 H26:H31 K26:K31" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C30 K26:K31 H30:H31" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29012,4 +29222,513 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A4:K29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.07"/>
+  </cols>
+  <sheetData>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="152" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>42663</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>42668</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <v>45440</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <v>45440</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="109.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="152" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="132" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="132" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B29 J26:J29" type="list">
+      <formula1>"未対応,対応中,保留,完了"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -261,6 +261,14 @@
     <t xml:space="preserve">テキストを読むのはもちろんだが、とにかくもっと実際にソースコードに触れていき、一行一行のソースコードの理解を深めていく</t>
   </si>
   <si>
+    <t xml:space="preserve">・もっと実際にソースコードを書いてどのように動いているのかを勉強しないといけないと感じた
+・一行一行のソースコードの理解を深めなければならない
+・メソッドや引数の部分の理解が不足していると感じた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もっとソースコードに触れていって動きを確かめることで理解を深めるいく</t>
+  </si>
+  <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
   </si>
   <si>
@@ -298,7 +306,13 @@
     <t xml:space="preserve">どういったサーブレットが必要なのか分からなかった</t>
   </si>
   <si>
+    <t xml:space="preserve">設計書をもっと読み込んでシステムを作成する際にもっとなにが必要かを洗い出す</t>
+  </si>
+  <si>
     <t xml:space="preserve">データベースから情報を取り出してくるときに昇順に表示させるやり方が思いつかなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">昇順での取り出し方の記述方法をすっかり忘れておりテキストをみるとすんなりソースコードを記述することができた</t>
   </si>
   <si>
     <r>
@@ -307,6 +321,7 @@
         <color rgb="FFD9E8F7"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -316,6 +331,7 @@
         <color rgb="FF808080"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;</t>
     </r>
@@ -326,6 +342,7 @@
         <color rgb="FF03A8D8"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">form</t>
     </r>
@@ -335,6 +352,7 @@
         <color rgb="FFA7EC21"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">action</t>
     </r>
@@ -344,6 +362,7 @@
         <color rgb="FF52CA11"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -353,6 +372,7 @@
         <color rgb="FF0080FF"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"/07_ReonOota_servlet_exam/login"</t>
     </r>
@@ -362,6 +382,7 @@
         <color rgb="FF000000"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -371,6 +392,7 @@
         <color rgb="FFA7EC21"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">method</t>
     </r>
@@ -380,6 +402,7 @@
         <color rgb="FF52CA11"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -389,6 +412,7 @@
         <color rgb="FF0080FF"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"post"</t>
     </r>
@@ -398,10 +422,43 @@
         <color rgb="FF808080"/>
         <rFont val="‚l‚r ƒSƒVƒbƒN"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&gt;
-といったどのようにソースコード書けばどの処理をおこなってくれるかが分からなかった</t>
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="MS PGothic"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">といったどのようにソースコード書けばどの処理をおこなってくれるかが分からなかった</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">画面のつながりをもっと意識して、どのサーブレットにつなぐと処理が行われるかを確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ブラウザで表示したときにパスのエラーが出てて書籍名検索の画面にいけなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソースコードのパスを記述するところが間違えていてうまくとばなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL文にミスがあり検索したときにうまく表示されなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL文の「ON」の前に空白が抜けており文字列として扱われていた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジャンル名検索のときに、ジャンルIDを入力値としなければならないのに、ジャンルの名前を入力値としていた。また、SQL文ではジャンルIDを取得するようにとソースコードに書いていたけれど引数としてジャンルの名前をもっており、ブラウザで表示されなかった
+フォームの部分のジャンルの名前をとってくるように記入していた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数の値で何の値が引き渡されているかを確認するとジャンル検索のときにしっかりとジャンルの名前をとってきてブラウザで表示された</t>
   </si>
 </sst>
 </file>
@@ -413,7 +470,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="[$-411]yyyy/m/d"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -474,12 +531,14 @@
       <color rgb="FFD9E8F7"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF808080"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -487,30 +546,42 @@
       <color rgb="FF03A8D8"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA7EC21"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF52CA11"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0080FF"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="‚l‚r ƒSƒVƒbƒN"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="MS PGothic"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -947,9 +1018,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2017,7 +2088,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="12" t="n">
         <v>25</v>
@@ -2025,8 +2096,12 @@
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="20"/>
@@ -29231,21 +29306,21 @@
   </sheetPr>
   <dimension ref="A4:K29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.07"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29324,23 +29399,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29348,153 +29423,161 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
-        <v>2</v>
-      </c>
+      <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
-        <v>4</v>
-      </c>
+    <row r="9" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>5</v>
-      </c>
+    <row r="10" customFormat="false" ht="80.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" customFormat="false" ht="109.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
-        <v>6</v>
-      </c>
+    <row r="11" customFormat="false" ht="86" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21" t="n">
+        <v>45441</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="152" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
-        <v>8</v>
-      </c>
+    <row r="13" customFormat="false" ht="71.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21" t="n">
+        <v>45441</v>
+      </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
-        <v>9</v>
-      </c>
+    <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21" t="n">
+        <v>45441</v>
+      </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="132" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="n">
-        <v>10</v>
-      </c>
+      <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -29507,9 +29590,7 @@
       <c r="K15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
-        <v>11</v>
-      </c>
+      <c r="A16" s="12"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -29522,9 +29603,7 @@
       <c r="K16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
-        <v>12</v>
-      </c>
+      <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -29537,9 +29616,7 @@
       <c r="K17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="132" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
-        <v>13</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -29552,9 +29629,7 @@
       <c r="K18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="142" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
-        <v>14</v>
-      </c>
+      <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -29567,9 +29642,7 @@
       <c r="K19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
-        <v>15</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -29582,9 +29655,7 @@
       <c r="K20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="n">
-        <v>16</v>
-      </c>
+      <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -29597,9 +29668,7 @@
       <c r="K21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
-        <v>17</v>
-      </c>
+      <c r="A22" s="12"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -29612,9 +29681,7 @@
       <c r="K22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="n">
-        <v>18</v>
-      </c>
+      <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -29627,9 +29694,7 @@
       <c r="K23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
-        <v>19</v>
-      </c>
+      <c r="A24" s="12"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -29642,9 +29707,7 @@
       <c r="K24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
-        <v>20</v>
-      </c>
+      <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -29657,9 +29720,7 @@
       <c r="K25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="92" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
-        <v>21</v>
-      </c>
+      <c r="A26" s="12"/>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -29672,9 +29733,7 @@
       <c r="K26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
-        <v>22</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -29687,9 +29746,7 @@
       <c r="K27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
-        <v>23</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -29702,9 +29759,7 @@
       <c r="K28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="122" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
-        <v>24</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理表" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t xml:space="preserve">もっとソースコードに触れていって動きを確かめることで理解を深めるいく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・プレゼンに設けられていた時間、いっぱいいっぱいを喋れなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・もっと準備物をしっかりと用意して発表に臨むべきだとである</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1017,10 +1023,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2122,14 +2128,20 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="56.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="B31" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="20"/>
@@ -2152,17 +2164,19 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="B32" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2180,17 +2194,19 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="B33" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2208,17 +2224,19 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="B34" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2236,17 +2254,19 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="B35" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2264,17 +2284,19 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="B36" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2292,17 +2314,19 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="B37" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -29284,7 +29308,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C30 K26:K31 H30:H31" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H30:H37" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29306,7 +29330,7 @@
   </sheetPr>
   <dimension ref="A4:K29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -29399,23 +29423,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29427,18 +29451,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29447,21 +29471,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29472,13 +29496,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29489,13 +29513,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29506,13 +29530,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29525,7 +29549,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29533,7 +29557,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29544,7 +29568,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29552,7 +29576,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29563,7 +29587,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29571,7 +29595,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t xml:space="preserve">・もっと準備物をしっかりと用意して発表に臨むべきだとである</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webアプリケーションのデプロイ中なにをしているかイメージできなかったので、もう少しどことどこが繋がっているかを考えて作業しなければならない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキストをもう一度振り返り理解を深めることや、一度間違えた作業のところはメモしてミスを繰り返さないようにする</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1023,10 +1029,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2108,7 +2114,9 @@
       <c r="G30" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="21" t="n">
+        <v>45441</v>
+      </c>
       <c r="I30" s="18"/>
       <c r="J30" s="20"/>
       <c r="K30" s="18"/>
@@ -2142,7 +2150,9 @@
       <c r="G31" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="21" t="n">
+        <v>45443</v>
+      </c>
       <c r="I31" s="18"/>
       <c r="J31" s="20"/>
       <c r="K31" s="18"/>
@@ -2162,7 +2172,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="12" t="n">
         <v>27</v>
@@ -2170,9 +2180,15 @@
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="18"/>
+      <c r="F32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="21" t="n">
+        <v>45446</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="20"/>
       <c r="K32" s="18"/>
@@ -29308,7 +29324,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H30:H37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H33:H37" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29423,23 +29439,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29451,18 +29467,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29471,21 +29487,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29496,13 +29512,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29513,13 +29529,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29530,13 +29546,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29549,7 +29565,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29557,7 +29573,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29568,7 +29584,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29576,7 +29592,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29587,7 +29603,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29595,7 +29611,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t xml:space="preserve">テキストをもう一度振り返り理解を深めることや、一度間違えた作業のところはメモしてミスを繰り返さないようにする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もっと資料をしっかりとみて読み解いて作業を進めなければいけない（デプロイ中にセキュリティグループのルールを作るだけ作って保存ができていないのが原因で最後ブラウザで表示されなかった）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その資料の作業画面を終えるタイミングですぐに次にいくのではなく、一度合っているかを確認してから次の作業を進めていく</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1029,10 +1035,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,7 +2214,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="12" t="n">
         <v>28</v>
@@ -2216,9 +2222,15 @@
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="18"/>
+      <c r="F33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <v>45447</v>
+      </c>
       <c r="I33" s="18"/>
       <c r="J33" s="20"/>
       <c r="K33" s="18"/>
@@ -29324,7 +29336,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H33:H37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H34:H37" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29439,23 +29451,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29467,18 +29479,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29487,21 +29499,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29512,13 +29524,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29529,13 +29541,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29546,13 +29558,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29565,7 +29577,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29573,7 +29585,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29584,7 +29596,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29592,7 +29604,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29603,7 +29615,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29611,7 +29623,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -285,6 +285,13 @@
   </si>
   <si>
     <t xml:space="preserve">その資料の作業画面を終えるタイミングですぐに次にいくのではなく、一度合っているかを確認してから次の作業を進めていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業のスピードがあまり早くないと感じた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・作業スピードを逆算し、一日のスケジュールを立てる
+・どうすれば効率があがるかを考えてから作業に取り掛かる</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1035,10 +1042,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2214,7 +2221,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="52" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="12" t="n">
         <v>28</v>
@@ -2250,7 +2257,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="44.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="12" t="n">
         <v>29</v>
@@ -2258,9 +2265,15 @@
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="18"/>
+      <c r="F34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="21" t="n">
+        <v>45448</v>
+      </c>
       <c r="I34" s="18"/>
       <c r="J34" s="20"/>
       <c r="K34" s="18"/>
@@ -29336,7 +29349,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H34:H37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H35:H37" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29451,23 +29464,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29479,18 +29492,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29499,21 +29512,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29524,13 +29537,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29541,13 +29554,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29558,13 +29571,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29577,7 +29590,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29585,7 +29598,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29596,7 +29609,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29604,7 +29617,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29615,7 +29628,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29623,7 +29636,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -292,6 +292,12 @@
   <si>
     <t xml:space="preserve">・作業スピードを逆算し、一日のスケジュールを立てる
 ・どうすれば効率があがるかを考えてから作業に取り掛かる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gitの使い方を間違えてしまい、コミットがうまくされなかった原因があまりわからなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう一度、gitの操作の資料を確認し操作方法を確かめる。それでも不安であればグループのメンバに見てもらいながら操作する</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1042,10 +1048,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2293,7 +2299,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="12" t="n">
         <v>30</v>
@@ -2301,9 +2307,15 @@
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="18"/>
+      <c r="F35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="21" t="n">
+        <v>45449</v>
+      </c>
       <c r="I35" s="18"/>
       <c r="J35" s="20"/>
       <c r="K35" s="18"/>
@@ -29349,7 +29361,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H35:H37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H36:H37" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29464,23 +29476,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29492,18 +29504,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29512,21 +29524,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29537,13 +29549,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29554,13 +29566,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29571,13 +29583,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29590,7 +29602,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29598,7 +29610,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29609,7 +29621,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29617,7 +29629,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29628,7 +29640,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29636,7 +29648,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -298,6 +298,14 @@
   </si>
   <si>
     <t xml:space="preserve">もう一度、gitの操作の資料を確認し操作方法を確かめる。それでも不安であればグループのメンバに見てもらいながら操作する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・自分のやるべき作業を、やり終えるために個人で一日のスケジュールを立てないといけない
+・チーム内での作業を進めていく話し合いの際に、なかなか一度でそのすべての概要を理解できない点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・お昼と夕方単位で分けて、その日に行う作業を自分自身で作成する
+・なかなかイメージできない部分は、メモを必要以上にとり後から見返せるようにする</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1051,7 +1059,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2335,7 +2343,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="12" t="n">
         <v>31</v>
@@ -2343,8 +2351,12 @@
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="20"/>
@@ -29476,23 +29488,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29504,18 +29516,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29524,21 +29536,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29549,13 +29561,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29566,13 +29578,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29583,13 +29595,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29602,7 +29614,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29610,7 +29622,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29621,7 +29633,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29629,7 +29641,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29640,7 +29652,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29648,7 +29660,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -306,6 +306,12 @@
   <si>
     <t xml:space="preserve">・お昼と夕方単位で分けて、その日に行う作業を自分自身で作成する
 ・なかなかイメージできない部分は、メモを必要以上にとり後から見返せるようにする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成物を完成したと思っていたが、講師にレビューをもらうと抜けが多くあった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成してすぐに提出するのではなく、一度確認作業を行う</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1056,10 +1062,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2357,7 +2363,9 @@
       <c r="G36" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="21" t="n">
+        <v>45450</v>
+      </c>
       <c r="I36" s="18"/>
       <c r="J36" s="20"/>
       <c r="K36" s="18"/>
@@ -2377,7 +2385,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="50.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="12" t="n">
         <v>32</v>
@@ -2385,9 +2393,15 @@
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="18"/>
+      <c r="F37" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="21" t="n">
+        <v>45453</v>
+      </c>
       <c r="I37" s="18"/>
       <c r="J37" s="20"/>
       <c r="K37" s="18"/>
@@ -29373,7 +29387,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37 H36:H37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29488,23 +29502,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29516,18 +29530,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29536,21 +29550,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29561,13 +29575,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29578,13 +29592,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29595,13 +29609,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29614,7 +29628,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29622,7 +29636,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29633,7 +29647,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29641,7 +29655,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29652,7 +29666,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29660,7 +29674,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t xml:space="preserve">完成してすぐに提出するのではなく、一度確認作業を行う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分自身で成果物を作成した際に、確認作業を完璧にできていなかった</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1062,10 +1065,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2421,19 +2424,27 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="B38" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="21" t="n">
+        <v>45454</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -29387,7 +29398,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C37 K26:K37" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C38 K26:K38" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29502,23 +29513,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29530,18 +29541,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29550,21 +29561,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29575,13 +29586,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29592,13 +29603,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29609,13 +29620,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29628,7 +29639,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29636,7 +29647,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29647,7 +29658,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29655,7 +29666,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29666,7 +29677,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29674,7 +29685,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t xml:space="preserve">自分自身で成果物を作成した際に、確認作業を完璧にできていなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業の効率を考えて作業を行っていかないといけない点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業を行う前に、どういう順番で作成していきどのような項目を記述するのかを書きだす</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1065,10 +1071,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,19 +2466,27 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="B39" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="21" t="n">
+        <v>45455</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -29398,7 +29412,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C38 K26:K38" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C39 K26:K39" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29513,23 +29527,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29541,18 +29555,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29561,21 +29575,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29586,13 +29600,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29603,13 +29617,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29620,13 +29634,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29639,7 +29653,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29647,7 +29661,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29658,7 +29672,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29666,7 +29680,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29677,7 +29691,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29685,7 +29699,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t xml:space="preserve">作業を行う前に、どういう順番で作成していきどのような項目を記述するのかを書きだす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業効率を上げるために、コピーできる部分はコピーし自分で記述する負担を減らさなければいけない点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分で記述しなければいけない点とコピーできる点を把握して作業を行っていく</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1071,10 +1077,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2502,19 +2508,27 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="B40" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="21" t="n">
+        <v>45456</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2532,17 +2546,21 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="B41" s="12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="n">
+        <v>45457</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2560,17 +2578,21 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="B42" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21" t="n">
+        <v>45458</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2588,17 +2610,21 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="B43" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21" t="n">
+        <v>45459</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -29412,7 +29438,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C39 K26:K39" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C43 K26:K43" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29527,23 +29553,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29555,18 +29581,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29575,21 +29601,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29600,13 +29626,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29617,13 +29643,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29634,13 +29660,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29653,7 +29679,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29661,7 +29687,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29672,7 +29698,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29680,7 +29706,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29691,7 +29717,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29699,7 +29725,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t xml:space="preserve">自分で記述しなければいけない点とコピーできる点を把握して作業を行っていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">まだ、設計書の読み込みが甘いのでもっと設計書を読み込み作業をしなければいけない点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さらに設計書を読み込み、理解度をあげて作業を行っていく</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1077,10 +1083,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2544,7 +2550,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="12" t="n">
         <v>36</v>
@@ -2552,8 +2558,12 @@
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="H41" s="21" t="n">
         <v>45457</v>
       </c>
@@ -29553,23 +29563,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29581,18 +29591,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29601,21 +29611,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29626,13 +29636,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29643,13 +29653,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29660,13 +29670,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29679,7 +29689,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29687,7 +29697,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29698,7 +29708,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29706,7 +29716,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29717,7 +29727,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29725,7 +29735,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t xml:space="preserve">さらに設計書を読み込み、理解度をあげて作業を行っていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSSやHTMLのモックを修正している時に、つながりを探すのに時間がかかってしまった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「どことどこが繋がっているか」をメモに書きだして作業をおこなうことで混乱を避けていく</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1086,7 +1092,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,7 +2592,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="12" t="n">
         <v>37</v>
@@ -2594,8 +2600,12 @@
       <c r="C42" s="18"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="F42" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="H42" s="21" t="n">
         <v>45458</v>
       </c>
@@ -29563,23 +29573,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29591,18 +29601,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29611,21 +29621,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29636,13 +29646,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29653,13 +29663,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29670,13 +29680,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29689,7 +29699,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29697,7 +29707,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29708,7 +29718,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29716,7 +29726,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29727,7 +29737,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29735,7 +29745,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t xml:space="preserve">「どことどこが繋がっているか」をメモに書きだして作業をおこなうことで混乱を避けていく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう一度設計書や要件定義を読み込み資料になにを書き込むべきなのかを理解する</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1090,9 +1093,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2592,7 +2595,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="23.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="12" t="n">
         <v>37</v>
@@ -2607,7 +2610,7 @@
         <v>92</v>
       </c>
       <c r="H42" s="21" t="n">
-        <v>45458</v>
+        <v>45460</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="20"/>
@@ -2628,7 +2631,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="12" t="n">
         <v>38</v>
@@ -2636,10 +2639,14 @@
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="F43" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="H43" s="21" t="n">
-        <v>45459</v>
+        <v>45461</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="20"/>
@@ -29573,23 +29580,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29601,18 +29608,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29621,21 +29628,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29646,13 +29653,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29663,13 +29670,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29680,13 +29687,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29699,7 +29706,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29707,7 +29714,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29718,7 +29725,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29726,7 +29733,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29737,7 +29744,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29745,7 +29752,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t xml:space="preserve">もう一度設計書や要件定義を読み込み資料になにを書き込むべきなのかを理解する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分自身、まだ技術知識がないと感じているので個人でもっと勉強を行うなければいけない点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休みの日や隙間時間に時間を見つけて実際にソースコードを触り勉強を行うこと</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1090,12 +1096,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2667,19 +2673,27 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="B44" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="21" t="n">
+        <v>45462</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3565,7 +3579,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="3"/>
@@ -29463,9 +29477,37 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C43 K26:K43" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C44 K26:K44" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29580,23 +29622,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29608,18 +29650,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29628,21 +29670,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29653,13 +29695,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29670,13 +29712,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29687,13 +29729,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29706,7 +29748,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29714,7 +29756,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29725,7 +29767,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29733,7 +29775,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29744,7 +29786,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29752,7 +29794,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>

--- a/07 ootareon 課題管理表.xlsx
+++ b/07 ootareon 課題管理表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -348,6 +348,13 @@
   </si>
   <si>
     <t xml:space="preserve">休みの日や隙間時間に時間を見つけて実際にソースコードを触り勉強を行うこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テストを行っている段階で、テストテーマの部分である「クロスサイトスクリプティング」やDB状態の「削除対象カテゴリの削除フラグが1になっている」かの確認が何を表しているかが理解できなかった点
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分で数分考えて理解できない場合は、ネットで調べたり講師の人に質問をしにいく</t>
   </si>
   <si>
     <t xml:space="preserve">書籍の項目を一覧表示する</t>
@@ -1096,11 +1103,11 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -2709,19 +2716,27 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="B45" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="21" t="n">
+        <v>45463</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3607,7 +3622,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="3"/>
@@ -29505,9 +29520,37 @@
       <c r="Y1001" s="2"/>
       <c r="Z1001" s="2"/>
     </row>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C44 K26:K44" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C45 K26:K45" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -29622,23 +29665,23 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>45440</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J6" s="16" t="n">
         <v>45440</v>
@@ -29650,18 +29693,18 @@
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="18"/>
@@ -29670,21 +29713,21 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="18"/>
       <c r="I8" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="18"/>
@@ -29695,13 +29738,13 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="18"/>
@@ -29712,13 +29755,13 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="18"/>
       <c r="I10" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="18"/>
@@ -29729,13 +29772,13 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="18"/>
       <c r="I11" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="18"/>
@@ -29748,7 +29791,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="n">
@@ -29756,7 +29799,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="18"/>
@@ -29767,7 +29810,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21" t="n">
@@ -29775,7 +29818,7 @@
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="18"/>
@@ -29786,7 +29829,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="21" t="n">
@@ -29794,7 +29837,7 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="18"/>
